--- a/dist/document/dest/2020/10/doctors/119.xlsx
+++ b/dist/document/dest/2020/10/doctors/119.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>25</v>
       </c>
-      <c r="C2" s="1">
-        <v>151250</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>494</v>
       </c>
-      <c r="C3" s="1">
-        <v>3314740</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>75</v>
       </c>
-      <c r="C4" s="1">
-        <v>396750</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>240</v>
       </c>
-      <c r="C5" s="1">
-        <v>1848000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>1170</v>
       </c>
-      <c r="C6" s="1">
-        <v>6189300</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>540</v>
       </c>
-      <c r="C7" s="1">
-        <v>1614600</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>60</v>
       </c>
-      <c r="C8" s="1">
-        <v>276000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>60</v>
       </c>
-      <c r="C9" s="1">
-        <v>455400</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>240</v>
       </c>
-      <c r="C10" s="1">
-        <v>11352000</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>210</v>
       </c>
-      <c r="C11" s="1">
-        <v>687750</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>190</v>
       </c>
-      <c r="C12" s="1">
-        <v>874000</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>60</v>
       </c>
-      <c r="C13" s="1">
-        <v>415800</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>30</v>
       </c>
-      <c r="C14" s="1">
-        <v>552000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>105</v>
       </c>
-      <c r="C15" s="1">
-        <v>392175</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
-        <v>32775</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>300</v>
       </c>
-      <c r="C17" s="1">
-        <v>2937000</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>60</v>
       </c>
-      <c r="C18" s="1">
-        <v>841500</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>40</v>
       </c>
-      <c r="C19" s="1">
-        <v>288200</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>825</v>
       </c>
-      <c r="C20" s="1">
-        <v>11797500</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>202</v>
       </c>
-      <c r="C21" s="1">
-        <v>1999800</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>120</v>
       </c>
-      <c r="C22" s="1">
-        <v>414000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>135</v>
       </c>
-      <c r="C23" s="1">
-        <v>574425</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>10</v>
       </c>
-      <c r="C24" s="1">
-        <v>68200</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>70</v>
       </c>
-      <c r="C25" s="1">
-        <v>6006000</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>158</v>
       </c>
-      <c r="C26" s="1">
-        <v>2728660</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>60</v>
       </c>
-      <c r="C27" s="1">
-        <v>392700</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>60</v>
       </c>
-      <c r="C28" s="1">
-        <v>14700</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>90</v>
       </c>
-      <c r="C29" s="1">
-        <v>27000</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>50</v>
       </c>
-      <c r="C30" s="1">
-        <v>124500</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>240</v>
       </c>
-      <c r="C31" s="1">
-        <v>800400</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>14</v>
       </c>
-      <c r="C32" s="1">
-        <v>84700</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>360</v>
       </c>
-      <c r="C33" s="1">
-        <v>1076400</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>275</v>
       </c>
-      <c r="C34" s="1">
-        <v>4386250</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>930</v>
       </c>
-      <c r="C35" s="1">
-        <v>3850200</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>30</v>
       </c>
-      <c r="C36" s="1">
-        <v>642000</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>30</v>
       </c>
-      <c r="C37" s="1">
-        <v>138000</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>2370</v>
       </c>
-      <c r="C38" s="1">
-        <v>5996100</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>240</v>
       </c>
-      <c r="C39" s="1">
-        <v>966000</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>45</v>
       </c>
-      <c r="C40" s="1">
-        <v>155250</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>180</v>
       </c>
-      <c r="C41" s="1">
-        <v>641700</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>30</v>
       </c>
-      <c r="C42" s="1">
-        <v>435600</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>2</v>
       </c>
-      <c r="C43" s="1">
-        <v>198000</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>60</v>
       </c>
-      <c r="C44" s="1">
-        <v>186000</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>60</v>
       </c>
-      <c r="C45" s="1">
-        <v>338100</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>30</v>
       </c>
-      <c r="C46" s="1">
-        <v>50700</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>60</v>
       </c>
-      <c r="C47" s="1">
-        <v>345000</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>810</v>
       </c>
-      <c r="C48" s="1">
-        <v>6058800</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>45</v>
       </c>
-      <c r="C49" s="1">
-        <v>841500</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>120</v>
       </c>
-      <c r="C50" s="1">
-        <v>699600</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>440</v>
       </c>
-      <c r="C51" s="1">
-        <v>2378200</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>220</v>
       </c>
-      <c r="C52" s="1">
-        <v>3557400</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>1470</v>
       </c>
-      <c r="C53" s="1">
-        <v>22638000</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>345</v>
       </c>
-      <c r="C54" s="1">
-        <v>1666350</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>47</v>
       </c>
-      <c r="C55" s="1">
-        <v>172490</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>28</v>
       </c>
-      <c r="C56" s="1">
-        <v>35420</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>560</v>
       </c>
-      <c r="C57" s="1">
-        <v>3141600</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>300</v>
       </c>
-      <c r="C58" s="1">
-        <v>3795000</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>180</v>
       </c>
-      <c r="C59" s="1">
-        <v>381600</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>180</v>
       </c>
-      <c r="C60" s="1">
-        <v>910800</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>345</v>
       </c>
-      <c r="C61" s="1">
-        <v>1587000</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>585</v>
       </c>
-      <c r="C62" s="1">
-        <v>6370650</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>90</v>
       </c>
-      <c r="C63" s="1">
-        <v>289800</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>1</v>
       </c>
-      <c r="C64" s="1">
-        <v>165000</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>120</v>
       </c>
-      <c r="C65" s="1">
-        <v>483000</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>60</v>
       </c>
-      <c r="C66" s="1">
-        <v>200100</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>90</v>
       </c>
-      <c r="C67" s="1">
-        <v>1633500</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>1112</v>
       </c>
-      <c r="C68" s="1">
-        <v>9752240</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>180</v>
       </c>
-      <c r="C69" s="1">
-        <v>1168200</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>330</v>
       </c>
-      <c r="C70" s="1">
-        <v>2541000</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>1440</v>
       </c>
-      <c r="C71" s="1">
-        <v>13305600</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>60</v>
       </c>
-      <c r="C72" s="1">
-        <v>303600</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>210</v>
       </c>
-      <c r="C73" s="1">
-        <v>966000</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>180</v>
       </c>
-      <c r="C74" s="1">
-        <v>713700</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>75</v>
       </c>
-      <c r="C75" s="1">
-        <v>651750</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1218,9 +996,6 @@
       <c r="B76" s="1">
         <v>15</v>
       </c>
-      <c r="C76" s="1">
-        <v>77625</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1229,9 +1004,6 @@
       <c r="B77" s="1">
         <v>12</v>
       </c>
-      <c r="C77" s="1">
-        <v>2156400</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1240,9 +1012,6 @@
       <c r="B78" s="1">
         <v>30</v>
       </c>
-      <c r="C78" s="1">
-        <v>1155000</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1251,9 +1020,6 @@
       <c r="B79" s="1">
         <v>4</v>
       </c>
-      <c r="C79" s="1">
-        <v>440000</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1262,9 +1028,6 @@
       <c r="B80" s="1">
         <v>90</v>
       </c>
-      <c r="C80" s="1">
-        <v>1782000</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1273,9 +1036,6 @@
       <c r="B81" s="1">
         <v>300</v>
       </c>
-      <c r="C81" s="1">
-        <v>3267000</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1284,9 +1044,6 @@
       <c r="B82" s="1">
         <v>1</v>
       </c>
-      <c r="C82" s="1">
-        <v>306000</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1295,9 +1052,6 @@
       <c r="B83" s="1">
         <v>60</v>
       </c>
-      <c r="C83" s="1">
-        <v>310500</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1306,9 +1060,6 @@
       <c r="B84" s="1">
         <v>120</v>
       </c>
-      <c r="C84" s="1">
-        <v>496800</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1317,9 +1068,6 @@
       <c r="B85" s="1">
         <v>90</v>
       </c>
-      <c r="C85" s="1">
-        <v>362250</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -1328,9 +1076,6 @@
       <c r="B86" s="1">
         <v>810</v>
       </c>
-      <c r="C86" s="1">
-        <v>1024650</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -1339,9 +1084,6 @@
       <c r="B87" s="1">
         <v>975</v>
       </c>
-      <c r="C87" s="1">
-        <v>7400250</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -1350,9 +1092,6 @@
       <c r="B88" s="1">
         <v>45</v>
       </c>
-      <c r="C88" s="1">
-        <v>386100</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -1361,9 +1100,6 @@
       <c r="B89" s="1">
         <v>270</v>
       </c>
-      <c r="C89" s="1">
-        <v>2361150</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -1372,9 +1108,6 @@
       <c r="B90" s="1">
         <v>930</v>
       </c>
-      <c r="C90" s="1">
-        <v>1818150</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -1383,9 +1116,6 @@
       <c r="B91" s="1">
         <v>720</v>
       </c>
-      <c r="C91" s="1">
-        <v>2732400</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1394,9 +1124,6 @@
       <c r="B92" s="1">
         <v>2130</v>
       </c>
-      <c r="C92" s="1">
-        <v>18275400</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -1405,9 +1132,6 @@
       <c r="B93" s="1">
         <v>280</v>
       </c>
-      <c r="C93" s="1">
-        <v>5236000</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -1416,9 +1140,6 @@
       <c r="B94" s="1">
         <v>120</v>
       </c>
-      <c r="C94" s="1">
-        <v>579600</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -1427,9 +1148,6 @@
       <c r="B95" s="1">
         <v>90</v>
       </c>
-      <c r="C95" s="1">
-        <v>685350</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -1438,9 +1156,6 @@
       <c r="B96" s="1">
         <v>240</v>
       </c>
-      <c r="C96" s="1">
-        <v>2798400</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -1449,9 +1164,6 @@
       <c r="B97" s="1">
         <v>615</v>
       </c>
-      <c r="C97" s="1">
-        <v>5953200</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -1461,7 +1173,7 @@
         <v>28220</v>
       </c>
       <c r="C98" s="1">
-        <v>223069250</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/119.xlsx
+++ b/dist/document/dest/2020/10/doctors/119.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,10 @@
         <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B2" s="1">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="C2" s="1">
+        <v>278300</v>
       </c>
     </row>
     <row r="3">
@@ -410,775 +413,1621 @@
         <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B3" s="1">
-        <v>494</v>
+        <v>540</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3623400</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Allerba (Ebastine 10mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B4" s="1">
-        <v>75</v>
+        <v>120</v>
+      </c>
+      <c r="C4" s="1">
+        <v>805200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>240</v>
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>1170</v>
+        <v>180</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1035000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v xml:space="preserve">Aspartam </v>
       </c>
       <c r="B7" s="1">
-        <v>540</v>
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>32500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>BS One (Omega3 Fish Oil 1000mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B8" s="1">
-        <v>60</v>
+        <v>150</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1155000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B9" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>231000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Barcavir (Entecavir 0.5mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B10" s="1">
-        <v>240</v>
+        <v>1320</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6982800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Be-Stedy 16 (Betahistine 16mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B11" s="1">
-        <v>210</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>158700</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Bentarcin (Thymomodulin 80mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>190</v>
+        <v>90</v>
+      </c>
+      <c r="C12" s="1">
+        <v>414000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Benzatique (Nebivolol 5mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B13" s="1">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="C13" s="1">
+        <v>683100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B14" s="1">
         <v>30</v>
       </c>
+      <c r="C14" s="1">
+        <v>227700</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>105</v>
+        <v>240</v>
+      </c>
+      <c r="C15" s="1">
+        <v>786000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Bonsartine (Losartan 25mg)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>15</v>
+        <v>90</v>
+      </c>
+      <c r="C16" s="1">
+        <v>294750</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>300</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="C18" s="1">
+        <v>414000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Camoas (Flavoxat 200mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>90</v>
+      </c>
+      <c r="C19" s="1">
+        <v>623700</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>825</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>207900</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>202</v>
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>56025</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>120</v>
+        <v>15</v>
+      </c>
+      <c r="C22" s="1">
+        <v>56025</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Chondrasil (Allopurinol 300mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>135</v>
+        <v>120</v>
+      </c>
+      <c r="C23" s="1">
+        <v>262200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Cilavef (Celecoxib 200mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="C24" s="1">
+        <v>324225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>70</v>
+        <v>840</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12012000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Cododamed (Pregabalina 75mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>158</v>
+        <v>180</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2574000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B27" s="1">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="C27" s="1">
+        <v>115000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Diurefar (Furosemide 40mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>60</v>
+        <v>98</v>
+      </c>
+      <c r="C28" s="1">
+        <v>970200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Doaspin 81mg (Acetylsalicylic)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>90</v>
+        <v>43</v>
+      </c>
+      <c r="C29" s="1">
+        <v>425700</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B30" s="1">
-        <v>50</v>
+        <v>254</v>
+      </c>
+      <c r="C30" s="1">
+        <v>876300</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Chondrasil (Allopurinol 300mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>240</v>
+        <v>173</v>
+      </c>
+      <c r="C31" s="1">
+        <v>736115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Esserose (Phospholipids 450mg)</v>
+        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
       </c>
       <c r="B32" s="1">
-        <v>14</v>
+        <v>77</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6606600</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Fagendol (Flunarizine 5mg)</v>
+        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
       </c>
       <c r="B33" s="1">
-        <v>360</v>
+        <v>28</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2402400</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>275</v>
+        <v>60</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1036200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Flodilan-4 (Glimepirid)</v>
+        <v>Coxwell (Etoricoxib 90mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>930</v>
+        <v>30</v>
+      </c>
+      <c r="C35" s="1">
+        <v>297000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Forxiga (Dapagliflozin 10mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>30</v>
+        <v>540</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3534300</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Genprid 2 (Glimepiride 2mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>30</v>
+        <v>180</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1178100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Doaspin 81mg (Acetylsalicylic)</v>
       </c>
       <c r="B38" s="1">
-        <v>2370</v>
+        <v>120</v>
+      </c>
+      <c r="C38" s="1">
+        <v>36000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Gujujnam (Piracetam 800mg)</v>
+        <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
       </c>
       <c r="B39" s="1">
-        <v>240</v>
+        <v>20</v>
+      </c>
+      <c r="C39" s="1">
+        <v>49800</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Hemfibrat (Fenofibrat 300mg)</v>
+        <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
       </c>
       <c r="B40" s="1">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="C40" s="1">
+        <v>74700</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Hemol (Methocarbamol 750mg)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>180</v>
+        <v>150</v>
+      </c>
+      <c r="C41" s="1">
+        <v>500250</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Hueso (Ursodeoxycholic 300mg)</v>
+        <v>Duphalac (Iactulose)</v>
       </c>
       <c r="B42" s="1">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="C42" s="1">
+        <v>201250</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Insulatard 100IU/10ml</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="C43" s="1">
+        <v>330000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Kim Tiểu Đường (U - 100) Omnican</v>
+        <v>Elpertone (Erdosteine 300mg)</v>
       </c>
       <c r="B44" s="1">
         <v>60</v>
+      </c>
+      <c r="C44" s="1">
+        <v>389400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Lactomin Plus (Probiotics)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B45" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C45" s="1">
+        <v>181500</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Levothyrox 100mcg (Levothyroxine)</v>
+        <v>Esomaxcare (Esomeprazole 40mg)</v>
       </c>
       <c r="B46" s="1">
         <v>30</v>
       </c>
+      <c r="C46" s="1">
+        <v>508200</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>60</v>
+        <v>180</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1089000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Fagendol (Flunarizine 5mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>810</v>
+        <v>570</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1704300</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Locinvid (Levofloxacin 500mg)</v>
+        <v>Fagendol (Flunarizine 5mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>45</v>
+        <v>100</v>
+      </c>
+      <c r="C49" s="1">
+        <v>299000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>120</v>
+        <v>345</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5502750</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Loxcip (Fexofenadine 180mg)</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>440</v>
+        <v>30</v>
+      </c>
+      <c r="C51" s="1">
+        <v>478500</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B52" s="1">
-        <v>220</v>
+        <v>556</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2301840</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B53" s="1">
-        <v>1470</v>
+        <v>180</v>
+      </c>
+      <c r="C53" s="1">
+        <v>745200</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Forxiga (Dapagliflozin 10mg)</v>
       </c>
       <c r="B54" s="1">
-        <v>345</v>
+        <v>84</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1797600</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B55" s="1">
-        <v>47</v>
+        <v>315</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1449000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B56" s="1">
-        <v>28</v>
+        <v>1967</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4976510</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Mexams (Montelukast 5mg)</v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>560</v>
+        <v>60</v>
+      </c>
+      <c r="C57" s="1">
+        <v>151800</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+        <v>Gujujnam (Piracetam 800mg)</v>
       </c>
       <c r="B58" s="1">
-        <v>300</v>
+        <v>60</v>
+      </c>
+      <c r="C58" s="1">
+        <v>241500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B59" s="1">
-        <v>180</v>
+        <v>90</v>
+      </c>
+      <c r="C59" s="1">
+        <v>310500</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Nadebo (Rebamipide 100mg)</v>
+        <v>Hemol (Methocarbamol 750mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>180</v>
+        <v>60</v>
+      </c>
+      <c r="C60" s="1">
+        <v>213900</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B61" s="1">
-        <v>345</v>
+        <v>180</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2613600</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Optipan (Diacerhein 50mg)</v>
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B62" s="1">
-        <v>585</v>
+        <v>120</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1742400</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Oxabiti (Mecobalamine 500mg)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B63" s="1">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="C63" s="1">
+        <v>528000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>PhilDesona (Budesonide 10ml)</v>
+        <v>Insulatard Flexpen 100IU/Ml 3ml</v>
       </c>
       <c r="B64" s="1">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1572300</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Lactomin Plus (Probiotics)</v>
       </c>
       <c r="B65" s="1">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="C65" s="1">
+        <v>338100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
       </c>
       <c r="B66" s="1">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="C66" s="1">
+        <v>103950</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Prorid (Finasteride 5 mg)</v>
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
       </c>
       <c r="B67" s="1">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="C67" s="1">
+        <v>172500</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Rabesime (Rabeprazole 20mg)</v>
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
       </c>
       <c r="B68" s="1">
-        <v>1112</v>
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
+        <v>172500</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B69" s="1">
-        <v>180</v>
+        <v>554</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4143920</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+        <v>Locinvid (Levofloxacin 500mg)</v>
       </c>
       <c r="B70" s="1">
-        <v>330</v>
+        <v>120</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2244000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Locinvid (Levofloxacin 500mg)</v>
       </c>
       <c r="B71" s="1">
-        <v>1440</v>
+        <v>15</v>
+      </c>
+      <c r="C71" s="1">
+        <v>280500</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Rhaminas (Glucosamine, chondroitin)</v>
+        <v>Loxcip (Fexofenadine 180mg)</v>
       </c>
       <c r="B72" s="1">
-        <v>60</v>
+        <v>269</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1453945</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>S-cort (Rabamipide 100mg)</v>
+        <v>Loxcip (Fexofenadine 180mg)</v>
       </c>
       <c r="B73" s="1">
-        <v>210</v>
+        <v>45</v>
+      </c>
+      <c r="C73" s="1">
+        <v>243225</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Safena (Atorvastatin 10mg)</v>
+        <v>Loxcip (Fexofenadine 180mg)</v>
       </c>
       <c r="B74" s="1">
-        <v>180</v>
+        <v>15</v>
+      </c>
+      <c r="C74" s="1">
+        <v>81075</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B75" s="1">
-        <v>75</v>
+        <v>120</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1940400</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Seromin (Vitamin A, C, E)</v>
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="C76" s="1">
+        <v>924000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Sotinin</v>
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
       </c>
       <c r="B77" s="1">
-        <v>12</v>
+        <v>1380</v>
+      </c>
+      <c r="C77" s="1">
+        <v>21252000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Stemvir (Tenofovir 300mg)</v>
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
       </c>
       <c r="B78" s="1">
-        <v>30</v>
+        <v>330</v>
+      </c>
+      <c r="C78" s="1">
+        <v>5082000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Stroseca (Ivermectin 6mg)</v>
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
       </c>
       <c r="B79" s="1">
-        <v>4</v>
+        <v>80</v>
+      </c>
+      <c r="C79" s="1">
+        <v>239200</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>SunnyRoitin (Citicoline 500mg)</v>
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
       </c>
       <c r="B80" s="1">
-        <v>90</v>
+        <v>42</v>
+      </c>
+      <c r="C80" s="1">
+        <v>154140</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
       </c>
       <c r="B81" s="1">
-        <v>300</v>
+        <v>42</v>
+      </c>
+      <c r="C81" s="1">
+        <v>53130</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Symbicort 60 Dos (Budesonide, formoterol)</v>
+        <v>Metozamin (Metformin 850mg)</v>
       </c>
       <c r="B82" s="1">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="C82" s="1">
+        <v>331200</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Talroma (Tiropramide 100mg)</v>
+        <v>Metozamin (Metformin 850mg)</v>
       </c>
       <c r="B83" s="1">
-        <v>60</v>
+        <v>240</v>
+      </c>
+      <c r="C83" s="1">
+        <v>441600</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+        <v>Mexams (Montelukast 5mg)</v>
       </c>
       <c r="B84" s="1">
-        <v>120</v>
+        <v>217</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1217370</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Targinos (Arginine 400mg)</v>
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B85" s="1">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="C85" s="1">
+        <v>759000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Tazilex (Methimazol 5mg)</v>
+        <v xml:space="preserve">Mg B6 </v>
       </c>
       <c r="B86" s="1">
-        <v>810</v>
+        <v>450</v>
+      </c>
+      <c r="C86" s="1">
+        <v>954000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v xml:space="preserve">Mg B6 </v>
       </c>
       <c r="B87" s="1">
-        <v>975</v>
+        <v>110</v>
+      </c>
+      <c r="C87" s="1">
+        <v>233200</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Toropi (Lercanidipine 10mg)</v>
+        <v>Nadebo (Rebamipide 100mg)</v>
       </c>
       <c r="B88" s="1">
-        <v>45</v>
+        <v>450</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2277000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Trimebutine Gerda 200mg</v>
+        <v>Nadebo (Rebamipide 100mg)</v>
       </c>
       <c r="B89" s="1">
-        <v>270</v>
+        <v>60</v>
+      </c>
+      <c r="C89" s="1">
+        <v>303600</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Trisova (Trimetazidine 20mg)</v>
+        <v>Nikoramyl (Nicorandil 5mg)</v>
       </c>
       <c r="B90" s="1">
-        <v>930</v>
+        <v>240</v>
+      </c>
+      <c r="C90" s="1">
+        <v>966000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Uvomo (Mosaprid citrat 5mg)</v>
+        <v>Noraquick (Gabapentin 300mg)</v>
       </c>
       <c r="B91" s="1">
-        <v>720</v>
+        <v>60</v>
+      </c>
+      <c r="C91" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Vigorito (Vildagliptin 50mg)</v>
+        <v>Normodipine (Amlodipine 5mg)</v>
       </c>
       <c r="B92" s="1">
-        <v>2130</v>
+        <v>300</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1380000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Vinaflam (Cefuroxime 500mg)</v>
+        <v>Normodipine (Amlodipine 5mg)</v>
       </c>
       <c r="B93" s="1">
-        <v>280</v>
+        <v>30</v>
+      </c>
+      <c r="C93" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
       </c>
       <c r="B94" s="1">
-        <v>120</v>
+        <v>80</v>
+      </c>
+      <c r="C94" s="1">
+        <v>197600</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+        <v>Opecerin (Diacerein 50mg)</v>
       </c>
       <c r="B95" s="1">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1009800</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+        <v>Optipan (Diacerhein 50mg)</v>
       </c>
       <c r="B96" s="1">
-        <v>240</v>
+        <v>450</v>
+      </c>
+      <c r="C96" s="1">
+        <v>4900500</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+        <v>Optipan (Diacerhein 50mg)</v>
       </c>
       <c r="B97" s="1">
-        <v>615</v>
+        <v>60</v>
+      </c>
+      <c r="C97" s="1">
+        <v>653400</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
+        <v>Oxabiti (Mecobalamine 500mg)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>60</v>
+      </c>
+      <c r="C98" s="1">
+        <v>193200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>PhilDesona (Budesonide 10ml)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>240</v>
+      </c>
+      <c r="C100" s="1">
+        <v>966000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>210</v>
+      </c>
+      <c r="C101" s="1">
+        <v>700350</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>60</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1089000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1487</v>
+      </c>
+      <c r="C103" s="1">
+        <v>13040990</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>30</v>
+      </c>
+      <c r="C104" s="1">
+        <v>263100</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>60</v>
+      </c>
+      <c r="C105" s="1">
+        <v>389400</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>60</v>
+      </c>
+      <c r="C106" s="1">
+        <v>389400</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>120</v>
+      </c>
+      <c r="C107" s="1">
+        <v>924000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Regurgex (Domperidone 10mg)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>90</v>
+      </c>
+      <c r="C108" s="1">
+        <v>108450</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1140</v>
+      </c>
+      <c r="C109" s="1">
+        <v>10533600</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>380</v>
+      </c>
+      <c r="C110" s="1">
+        <v>3511200</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>60</v>
+      </c>
+      <c r="C111" s="1">
+        <v>303600</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>120</v>
+      </c>
+      <c r="C112" s="1">
+        <v>607200</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>270</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1242000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>60</v>
+      </c>
+      <c r="C114" s="1">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>180</v>
+      </c>
+      <c r="C115" s="1">
+        <v>713700</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>60</v>
+      </c>
+      <c r="C116" s="1">
+        <v>521400</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>60</v>
+      </c>
+      <c r="C117" s="1">
+        <v>521400</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>30</v>
+      </c>
+      <c r="C118" s="1">
+        <v>260700</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Seretide 25/125 (Salmeterol, fluticasone propionate)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>241800</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>179700</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>4</v>
+      </c>
+      <c r="C121" s="1">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>30</v>
+      </c>
+      <c r="C122" s="1">
+        <v>326700</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>120</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1306800</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>195</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1009125</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>194</v>
+      </c>
+      <c r="C125" s="1">
+        <v>803160</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>30</v>
+      </c>
+      <c r="C126" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1320</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1669800</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>90</v>
+      </c>
+      <c r="C128" s="1">
+        <v>113850</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>60</v>
+      </c>
+      <c r="C129" s="1">
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>450</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3415500</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>90</v>
+      </c>
+      <c r="C131" s="1">
+        <v>683100</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>15</v>
+      </c>
+      <c r="C132" s="1">
+        <v>113850</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B133" s="1">
+        <v>120</v>
+      </c>
+      <c r="C133" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B134" s="1">
+        <v>30</v>
+      </c>
+      <c r="C134" s="1">
+        <v>124200</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B135" s="1">
+        <v>60</v>
+      </c>
+      <c r="C135" s="1">
+        <v>524700</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1260</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2463300</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>180</v>
+      </c>
+      <c r="C137" s="1">
+        <v>351900</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>60</v>
+      </c>
+      <c r="C138" s="1">
+        <v>227700</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>660</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2504700</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1981</v>
+      </c>
+      <c r="C140" s="1">
+        <v>16996980</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>60</v>
+      </c>
+      <c r="C141" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>273</v>
+      </c>
+      <c r="C142" s="1">
+        <v>5105100</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B143" s="1">
+        <v>20</v>
+      </c>
+      <c r="C143" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B144" s="1">
+        <v>180</v>
+      </c>
+      <c r="C144" s="1">
+        <v>869400</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>165</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1256475</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B146" s="1">
+        <v>90</v>
+      </c>
+      <c r="C146" s="1">
+        <v>476100</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>240</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2798400</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B148" s="1">
+        <v>698</v>
+      </c>
+      <c r="C148" s="1">
+        <v>6756640</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B98" s="1">
-        <v>28220</v>
-      </c>
-      <c r="C98" s="1">
-        <v>NaN</v>
+      <c r="B149" s="1">
+        <v>31300</v>
+      </c>
+      <c r="C149" s="1">
+        <v>225916015</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C98"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C149"/>
   </ignoredErrors>
 </worksheet>
 </file>